--- a/tinypico-goodisplay/production/bom.xlsx
+++ b/tinypico-goodisplay/production/bom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="8380" windowHeight="5100"/>
+    <workbookView activeTab="0" windowWidth="14400" windowHeight="6020"/>
   </bookViews>
   <sheets>
     <sheet name="bom.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7" count="7">
   <si>
     <t>C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
   </si>
@@ -33,7 +33,10 @@
     <t>R_0603_1608Metric</t>
   </si>
   <si>
-    <t>C2911519</t>
+    <t>C_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>C25804</t>
   </si>
   <si>
     <t>AFC24-S24FIC-00</t>
@@ -95,12 +98,16 @@
       <protection locked="1" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
     </xf>
@@ -113,19 +120,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" style="0" width="15.141947115384617" customWidth="1"/>
-    <col min="2" max="2" style="0" width="23.846185897435902" customWidth="1"/>
-    <col min="3" max="3" style="0" width="30.855288461538464" customWidth="1"/>
+    <col min="2" max="2" style="0" width="7.713822115384616" customWidth="1"/>
+    <col min="3" max="3" style="0" width="17.141826923076923" customWidth="1"/>
     <col min="4" max="4" style="0" width="14.570552884615386" customWidth="1"/>
-    <col min="5" max="16384" style="0" width="9.142307692307693"/>
+    <col min="5" max="256" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.5">
@@ -164,7 +171,7 @@
           <t>1uF</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>C28323</t>
         </is>
@@ -182,210 +189,332 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.5">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>D4,D5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SOT-323_SC-70</t>
+          <t>D_SOD-323</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Si1308</t>
+          <t>1N4148WS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C469327</t>
+          <t>C2128</t>
         </is>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SOT-323_SC-70</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3R</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>C25237</t>
+          <t>Si1308</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>C469327</t>
         </is>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.5">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C12</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>C_0603_1608Metric</t>
-        </is>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3R</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C19666</t>
+          <t>C25237</t>
         </is>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.5">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JP1</t>
+          <t>Y1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>switch-MK-12C02-G020</t>
+          <t>Q13FC1350000400-Crystal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>selector</t>
-        </is>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
+          <t>Crystal_Small</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>C32346</t>
+        </is>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13.5">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D1,D3,D2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>D_SOD-123</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MBR0530</t>
-        </is>
+          <t>C12</t>
+        </is>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C77336</t>
+          <t>C19666</t>
         </is>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.5">
       <c r="A9" t="inlineStr">
         <is>
-          <t>R2</t>
-        </is>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
+          <t>JP1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>switch-MK-12C02-G020</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.47R</t>
+          <t>selector</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C103895</t>
+          <t>C2911519</t>
         </is>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.5">
       <c r="A10" t="inlineStr">
         <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SWPA4030S1R0NT</t>
-        </is>
+          <t>R7,R6</t>
+        </is>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10uH</t>
+          <t>4.7K</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C38117</t>
+          <t>C23162</t>
         </is>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5">
       <c r="A11" t="inlineStr">
         <is>
-          <t>R1</t>
-        </is>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
+          <t>D1,D3,D2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>D_SOD-123</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>MBR0530</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C25804</t>
+          <t>C77336</t>
         </is>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.5">
       <c r="A12" t="inlineStr">
         <is>
-          <t>J1</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10 K</t>
+        </is>
+      </c>
+      <c r="D12" t="s">
         <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>C262292</t>
-        </is>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13.5">
       <c r="A13" t="inlineStr">
         <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.47R</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>C103895</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.5">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SWPA4030S1R0NT</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10uH</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>C38117</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.5">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>R1,R4</t>
+        </is>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.5">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>J1</t>
+        </is>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>C262292</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.5">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C13,C14</t>
+        </is>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>12 pF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>C38523</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.5">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>C11</t>
         </is>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" t="s">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>4.7uF 50V</t>
         </is>
       </c>
-      <c r="D13" t="s">
+      <c r="D18" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.5">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>U2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PCF8563T</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>C7440</t>
+        </is>
       </c>
     </row>
   </sheetData>
